--- a/fileNaming/파일/매각사 이름매칭.xlsx
+++ b/fileNaming/파일/매각사 이름매칭.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7060e631ec4b75a9/workspace/company/fileNaming/파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SL\Desktop\workspace\python\fileNaming\파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A89EA97EBF25B1983FCB231267F3B8D9729E009A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6671097-C615-4123-AEF0-B8D8BE71B94F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A1499-FF18-43C2-8FC3-75AA860F89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="45" windowWidth="17910" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>폴더</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>디엔피에이엠씨대부㈜</t>
   </si>
@@ -126,9 +122,6 @@
     <t>㈜현대베리타스투자1호대부</t>
   </si>
   <si>
-    <t>외환베리타스제1차대부(유)</t>
-  </si>
-  <si>
     <t>㈜엠앤케이개발</t>
   </si>
   <si>
@@ -217,6 +210,26 @@
   </si>
   <si>
     <t>대산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘케이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠앤케이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +319,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -582,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,232 +620,241 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
